--- a/Code/Results/Cases/Case_0_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00574227983126363</v>
+        <v>0.005662360753348139</v>
       </c>
       <c r="D2">
-        <v>0.07780976496754732</v>
+        <v>0.1657542215531649</v>
       </c>
       <c r="E2">
-        <v>0.1327232834363663</v>
+        <v>0.1560617972849982</v>
       </c>
       <c r="F2">
-        <v>2.102741431396893</v>
+        <v>1.671014047417088</v>
       </c>
       <c r="G2">
-        <v>0.000749714063272503</v>
+        <v>0.002420309551005406</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.339969740891618</v>
+        <v>0.9185472614003487</v>
       </c>
       <c r="J2">
-        <v>0.2298299464141706</v>
+        <v>0.1932238490455518</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.94253518279254</v>
+        <v>4.250172472561133</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005191033890254104</v>
+        <v>0.005464652714156415</v>
       </c>
       <c r="D3">
-        <v>0.07353815730570545</v>
+        <v>0.1656575482190021</v>
       </c>
       <c r="E3">
-        <v>0.1190968390018945</v>
+        <v>0.1538024989726807</v>
       </c>
       <c r="F3">
-        <v>1.850252177029347</v>
+        <v>1.618929075160182</v>
       </c>
       <c r="G3">
-        <v>0.0007569124193116394</v>
+        <v>0.002425096453883147</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.172644208695573</v>
+        <v>0.882241590849361</v>
       </c>
       <c r="J3">
-        <v>0.2025863674040522</v>
+        <v>0.1878352636291325</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.207612990269183</v>
+        <v>4.093121084770473</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.004852714876566466</v>
+        <v>0.005341410750718367</v>
       </c>
       <c r="D4">
-        <v>0.07102275159614635</v>
+        <v>0.1656594146244927</v>
       </c>
       <c r="E4">
-        <v>0.1109569719955523</v>
+        <v>0.1525006487871927</v>
       </c>
       <c r="F4">
-        <v>1.698716305885497</v>
+        <v>1.587975245859411</v>
       </c>
       <c r="G4">
-        <v>0.0007614608559498964</v>
+        <v>0.002428193274183066</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.07209095289457</v>
+        <v>0.8605291892113058</v>
       </c>
       <c r="J4">
-        <v>0.1862621206384318</v>
+        <v>0.1846464827537275</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.766206282934604</v>
+        <v>3.9993597414894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.004714793478159507</v>
+        <v>0.005290722662982361</v>
       </c>
       <c r="D5">
-        <v>0.0700229323745063</v>
+        <v>0.1656755819619136</v>
       </c>
       <c r="E5">
-        <v>0.107691436571681</v>
+        <v>0.1519915571079693</v>
       </c>
       <c r="F5">
-        <v>1.637745729500026</v>
+        <v>1.575618501119607</v>
       </c>
       <c r="G5">
-        <v>0.0007633479937903068</v>
+        <v>0.002429495028810907</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.031600981391804</v>
+        <v>0.851826243782142</v>
       </c>
       <c r="J5">
-        <v>0.1797001995645573</v>
+        <v>0.1833770359119313</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.588521235635426</v>
+        <v>3.961819388656522</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.00469188596736636</v>
+        <v>0.005282277765694232</v>
       </c>
       <c r="D6">
-        <v>0.06985838763384322</v>
+        <v>0.1656791974118477</v>
       </c>
       <c r="E6">
-        <v>0.1071521559909918</v>
+        <v>0.1519083154530705</v>
       </c>
       <c r="F6">
-        <v>1.627666123708465</v>
+        <v>1.573582179559608</v>
       </c>
       <c r="G6">
-        <v>0.0007636634172268382</v>
+        <v>0.002429713590366943</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.02490526975717</v>
+        <v>0.850389866738638</v>
       </c>
       <c r="J6">
-        <v>0.1786157460822366</v>
+        <v>0.1831680539591432</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.559141319111575</v>
+        <v>3.955626111343008</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.004850855153023304</v>
+        <v>0.005340729042611514</v>
       </c>
       <c r="D7">
-        <v>0.07100916777810795</v>
+        <v>0.1656595702654968</v>
       </c>
       <c r="E7">
-        <v>0.1109127301850172</v>
+        <v>0.1524936963151973</v>
       </c>
       <c r="F7">
-        <v>1.697890993610685</v>
+        <v>1.587807558372191</v>
       </c>
       <c r="G7">
-        <v>0.0007614861688463146</v>
+        <v>0.002428210669018882</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.071543001909973</v>
+        <v>0.8604112318919732</v>
       </c>
       <c r="J7">
-        <v>0.1861732725178413</v>
+        <v>0.1846292412151129</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.763801442582235</v>
+        <v>3.998850757741309</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005552122376791147</v>
+        <v>0.005594573897342414</v>
       </c>
       <c r="D8">
-        <v>0.07631351741943604</v>
+        <v>0.1657081878800355</v>
       </c>
       <c r="E8">
-        <v>0.1279743491417662</v>
+        <v>0.1552650454767992</v>
       </c>
       <c r="F8">
-        <v>2.01489715758585</v>
+        <v>1.652841496240853</v>
       </c>
       <c r="G8">
-        <v>0.0007521701574058168</v>
+        <v>0.002421927437479876</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.281782640556628</v>
+        <v>0.9059083892653774</v>
       </c>
       <c r="J8">
-        <v>0.2203456576905438</v>
+        <v>0.1913409155047816</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.686914776933293</v>
+        <v>4.195465394021767</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.00693302954651287</v>
+        <v>0.006077769785441944</v>
       </c>
       <c r="D9">
-        <v>0.08765532632355644</v>
+        <v>0.1662889926050966</v>
       </c>
       <c r="E9">
-        <v>0.1635063726218604</v>
+        <v>0.1613794864529368</v>
       </c>
       <c r="F9">
-        <v>2.669101702893784</v>
+        <v>1.788569721226509</v>
       </c>
       <c r="G9">
-        <v>0.000734859145488238</v>
+        <v>0.002410850731438568</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.714554477890246</v>
+        <v>0.9997616778198619</v>
       </c>
       <c r="J9">
-        <v>0.291112423837717</v>
+        <v>0.2054599256652097</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>7.58928404864389</v>
+        <v>4.602361170041831</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.007958159863409975</v>
+        <v>0.006424007598077708</v>
       </c>
       <c r="D10">
-        <v>0.09669743349443394</v>
+        <v>0.1670115016794327</v>
       </c>
       <c r="E10">
-        <v>0.1913030911542108</v>
+        <v>0.1662903725629192</v>
       </c>
       <c r="F10">
-        <v>3.177126618260132</v>
+        <v>1.893370861341111</v>
       </c>
       <c r="G10">
-        <v>0.0007226275367461782</v>
+        <v>0.002403462898479308</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.049915963616613</v>
+        <v>1.071598801724534</v>
       </c>
       <c r="J10">
-        <v>0.3462568387140124</v>
+        <v>0.2164273938265069</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>9.065077140350013</v>
+        <v>4.914571738138193</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.008428616968593872</v>
+        <v>0.006579646417335994</v>
       </c>
       <c r="D11">
-        <v>0.1009994930278779</v>
+        <v>0.167404410306446</v>
       </c>
       <c r="E11">
-        <v>0.2044248548577059</v>
+        <v>0.1686163153965907</v>
       </c>
       <c r="F11">
-        <v>3.416114920787663</v>
+        <v>1.942170287001204</v>
       </c>
       <c r="G11">
-        <v>0.0007171442109229421</v>
+        <v>0.002400263057522798</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.207517218542037</v>
+        <v>1.10491864923722</v>
       </c>
       <c r="J11">
-        <v>0.3722491274677964</v>
+        <v>0.2215481945660116</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>9.759041800641228</v>
+        <v>5.059543080872743</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.008607529192047991</v>
+        <v>0.006638316136701405</v>
       </c>
       <c r="D12">
-        <v>0.1026589863352214</v>
+        <v>0.1675624270670966</v>
       </c>
       <c r="E12">
-        <v>0.2094727047282916</v>
+        <v>0.1695103775834284</v>
       </c>
       <c r="F12">
-        <v>3.507931801680627</v>
+        <v>1.960812432054894</v>
       </c>
       <c r="G12">
-        <v>0.0007150771293939717</v>
+        <v>0.002399074361535178</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.268042134944977</v>
+        <v>1.11762906363505</v>
       </c>
       <c r="J12">
-        <v>0.3822432978933961</v>
+        <v>0.2235064070284523</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.02561864533772</v>
+        <v>5.114867506673818</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.008568960529011349</v>
+        <v>0.006625692435850539</v>
       </c>
       <c r="D13">
-        <v>0.1023001768121503</v>
+        <v>0.1675279848826676</v>
       </c>
       <c r="E13">
-        <v>0.2083818709630307</v>
+        <v>0.1693172338603688</v>
       </c>
       <c r="F13">
-        <v>3.488095638093938</v>
+        <v>1.956790251411689</v>
       </c>
       <c r="G13">
-        <v>0.0007155219368241873</v>
+        <v>0.002399329347092327</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.254967373350283</v>
+        <v>1.114887503869923</v>
       </c>
       <c r="J13">
-        <v>0.3800837738811538</v>
+        <v>0.2230838201640069</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>9.968028840812906</v>
+        <v>5.102933359247629</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.00844331991002889</v>
+        <v>0.006584478562363216</v>
       </c>
       <c r="D14">
-        <v>0.101135391304993</v>
+        <v>0.1674172254762567</v>
       </c>
       <c r="E14">
-        <v>0.2048384988340501</v>
+        <v>0.1686896039987076</v>
       </c>
       <c r="F14">
-        <v>3.423641218142109</v>
+        <v>1.943700717094572</v>
       </c>
       <c r="G14">
-        <v>0.0007169739779665368</v>
+        <v>0.002400164802527379</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.212478970827064</v>
+        <v>1.105962476160244</v>
       </c>
       <c r="J14">
-        <v>0.3730681881837228</v>
+        <v>0.2217089147210629</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>9.780894020676442</v>
+        <v>5.064086078761079</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.008366465759682029</v>
+        <v>0.006559199094112955</v>
       </c>
       <c r="D15">
-        <v>0.1004259883484693</v>
+        <v>0.1673505840861793</v>
       </c>
       <c r="E15">
-        <v>0.2026786884985441</v>
+        <v>0.1683068934386682</v>
       </c>
       <c r="F15">
-        <v>3.384338403655164</v>
+        <v>1.935704241955278</v>
       </c>
       <c r="G15">
-        <v>0.0007178645378081223</v>
+        <v>0.00240067953628191</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.186567414436013</v>
+        <v>1.100507761758422</v>
       </c>
       <c r="J15">
-        <v>0.3687913344087406</v>
+        <v>0.2208692341137919</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.666778832012653</v>
+        <v>5.040346698035364</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.007927511176479385</v>
+        <v>0.006413798768271306</v>
       </c>
       <c r="D16">
-        <v>0.09642035148119987</v>
+        <v>0.1669871162193317</v>
       </c>
       <c r="E16">
-        <v>0.1904560047181363</v>
+        <v>0.1661402217915651</v>
       </c>
       <c r="F16">
-        <v>3.161681989588118</v>
+        <v>1.890204433495285</v>
       </c>
       <c r="G16">
-        <v>0.0007229873226071222</v>
+        <v>0.00240367524306892</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.039727714578376</v>
+        <v>1.069434230842432</v>
       </c>
       <c r="J16">
-        <v>0.3445781685995826</v>
+        <v>0.2160953989146606</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.020224264662204</v>
+        <v>4.905157075009072</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.007659395137324054</v>
+        <v>0.006324123085263977</v>
       </c>
       <c r="D17">
-        <v>0.09401356474365485</v>
+        <v>0.1667805881668443</v>
       </c>
       <c r="E17">
-        <v>0.1830868943701418</v>
+        <v>0.1648346298184862</v>
       </c>
       <c r="F17">
-        <v>3.027232415914312</v>
+        <v>1.862580661376398</v>
       </c>
       <c r="G17">
-        <v>0.0007261491547633225</v>
+        <v>0.002405554137960804</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.951018491348265</v>
+        <v>1.050536287986077</v>
       </c>
       <c r="J17">
-        <v>0.3299705946886462</v>
+        <v>0.2132006262028767</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.629737025193549</v>
+        <v>4.822979363759998</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.007505558512644228</v>
+        <v>0.006272368255473282</v>
       </c>
       <c r="D18">
-        <v>0.0926467954688448</v>
+        <v>0.1666678451965993</v>
       </c>
       <c r="E18">
-        <v>0.1788925745264578</v>
+        <v>0.1640923398405221</v>
       </c>
       <c r="F18">
-        <v>2.950630524986764</v>
+        <v>1.846798008239091</v>
       </c>
       <c r="G18">
-        <v>0.0007279755239407298</v>
+        <v>0.002406649982739317</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.900462041602509</v>
+        <v>1.039726957704872</v>
       </c>
       <c r="J18">
-        <v>0.3216526510860405</v>
+        <v>0.2115480116453909</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.407232346872547</v>
+        <v>4.775989925992917</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.00745353197571319</v>
+        <v>0.006254814741296855</v>
       </c>
       <c r="D19">
-        <v>0.09218695229299101</v>
+        <v>0.1666307110552339</v>
       </c>
       <c r="E19">
-        <v>0.1774797461879274</v>
+        <v>0.1638424975404007</v>
       </c>
       <c r="F19">
-        <v>2.924814593606385</v>
+        <v>1.841472412555561</v>
       </c>
       <c r="G19">
-        <v>0.0007285953006297273</v>
+        <v>0.002407023623707676</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.883421261104104</v>
+        <v>1.036077431828204</v>
       </c>
       <c r="J19">
-        <v>0.318850157263924</v>
+        <v>0.2109905869810405</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.332240387438844</v>
+        <v>4.76012758308957</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.007687896416694429</v>
+        <v>0.006333687396502086</v>
       </c>
       <c r="D20">
-        <v>0.09426793251593324</v>
+        <v>0.1668019476872189</v>
       </c>
       <c r="E20">
-        <v>0.1838667035994845</v>
+        <v>0.1649727164695278</v>
       </c>
       <c r="F20">
-        <v>3.041468000912062</v>
+        <v>1.865510300207291</v>
       </c>
       <c r="G20">
-        <v>0.000725811784223203</v>
+        <v>0.002405352559037199</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.960412614998177</v>
+        <v>1.052541763386898</v>
       </c>
       <c r="J20">
-        <v>0.3315167636373246</v>
+        <v>0.2135074971413786</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.671084754069739</v>
+        <v>4.831698627653225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.008480201527827802</v>
+        <v>0.006596591321983425</v>
       </c>
       <c r="D21">
-        <v>0.1014766641972287</v>
+        <v>0.1674495077245268</v>
       </c>
       <c r="E21">
-        <v>0.205877042201152</v>
+        <v>0.1688735932954657</v>
       </c>
       <c r="F21">
-        <v>3.442535717124287</v>
+        <v>1.947541001679866</v>
       </c>
       <c r="G21">
-        <v>0.0007165472446885222</v>
+        <v>0.00239991878517265</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.224934889968011</v>
+        <v>1.108581445382072</v>
       </c>
       <c r="J21">
-        <v>0.3751245439718645</v>
+        <v>0.2221122388766332</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>9.835752655354895</v>
+        <v>5.075484852666136</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.009002544228945197</v>
+        <v>0.00676685657725784</v>
       </c>
       <c r="D22">
-        <v>0.106366967887503</v>
+        <v>0.1679265272183343</v>
       </c>
       <c r="E22">
-        <v>0.2207278809465194</v>
+        <v>0.1715004631243318</v>
       </c>
       <c r="F22">
-        <v>3.712437093440286</v>
+        <v>2.002102616583727</v>
       </c>
       <c r="G22">
-        <v>0.0007105454638213567</v>
+        <v>0.002396501586941297</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.40280628890099</v>
+        <v>1.145748539673875</v>
       </c>
       <c r="J22">
-        <v>0.4045193642390785</v>
+        <v>0.2278471959354675</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.61930708427468</v>
+        <v>5.237303306422632</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.00872328488687657</v>
+        <v>0.006676124972550213</v>
       </c>
       <c r="D23">
-        <v>0.103739363158958</v>
+        <v>0.16766701201567</v>
       </c>
       <c r="E23">
-        <v>0.2127553155278576</v>
+        <v>0.1700913507559818</v>
       </c>
       <c r="F23">
-        <v>3.567606822074708</v>
+        <v>1.972894777410517</v>
       </c>
       <c r="G23">
-        <v>0.000713744701397834</v>
+        <v>0.002398313182585034</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.307372705115142</v>
+        <v>1.125861919307937</v>
       </c>
       <c r="J23">
-        <v>0.3887412476268395</v>
+        <v>0.2247761122309413</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.19886652046335</v>
+        <v>5.150708771068594</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.007675010044700059</v>
+        <v>0.00632936399155426</v>
       </c>
       <c r="D24">
-        <v>0.0941528803707854</v>
+        <v>0.1667922723815281</v>
       </c>
       <c r="E24">
-        <v>0.1835140209194535</v>
+        <v>0.1649102616082416</v>
       </c>
       <c r="F24">
-        <v>3.035029941841998</v>
+        <v>1.864185503376831</v>
       </c>
       <c r="G24">
-        <v>0.0007259642825286691</v>
+        <v>0.002405443644086219</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.956164158613319</v>
+        <v>1.051634915608872</v>
       </c>
       <c r="J24">
-        <v>0.3308174925770402</v>
+        <v>0.2133687245811586</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.652385281880925</v>
+        <v>4.827755852455084</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.006558157153829569</v>
+        <v>0.005948601382307572</v>
       </c>
       <c r="D25">
-        <v>0.08447321656916529</v>
+        <v>0.1660799154440724</v>
       </c>
       <c r="E25">
-        <v>0.15363066572937</v>
+        <v>0.1596521609234394</v>
       </c>
       <c r="F25">
-        <v>2.487908474482708</v>
+        <v>1.750965426991911</v>
       </c>
       <c r="G25">
-        <v>0.0007394491342392895</v>
+        <v>0.002413714909989392</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.594809637393851</v>
+        <v>0.9738698291636609</v>
       </c>
       <c r="J25">
-        <v>0.2714827760863585</v>
+        <v>0.2015367754053301</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>7.062657127029865</v>
+        <v>4.489974540659205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_122/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_122/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.005662360753348139</v>
+        <v>0.005742279831105535</v>
       </c>
       <c r="D2">
-        <v>0.1657542215531649</v>
+        <v>0.07780976496754732</v>
       </c>
       <c r="E2">
-        <v>0.1560617972849982</v>
+        <v>0.1327232834363805</v>
       </c>
       <c r="F2">
-        <v>1.671014047417088</v>
+        <v>2.102741431396908</v>
       </c>
       <c r="G2">
-        <v>0.002420309551005406</v>
+        <v>0.0007497140633481248</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9185472614003487</v>
+        <v>1.339969740891632</v>
       </c>
       <c r="J2">
-        <v>0.1932238490455518</v>
+        <v>0.2298299464141138</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.250172472561133</v>
+        <v>5.942535182792597</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.005464652714156415</v>
+        <v>0.005191033890257657</v>
       </c>
       <c r="D3">
-        <v>0.1656575482190021</v>
+        <v>0.07353815730570545</v>
       </c>
       <c r="E3">
-        <v>0.1538024989726807</v>
+        <v>0.1190968390019052</v>
       </c>
       <c r="F3">
-        <v>1.618929075160182</v>
+        <v>1.850252177029347</v>
       </c>
       <c r="G3">
-        <v>0.002425096453883147</v>
+        <v>0.0007569124192676658</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.882241590849361</v>
+        <v>1.172644208695573</v>
       </c>
       <c r="J3">
-        <v>0.1878352636291325</v>
+        <v>0.2025863674039456</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.093121084770473</v>
+        <v>5.207612990269183</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.005341410750718367</v>
+        <v>0.004852714876628639</v>
       </c>
       <c r="D4">
-        <v>0.1656594146244927</v>
+        <v>0.07102275159585503</v>
       </c>
       <c r="E4">
-        <v>0.1525006487871927</v>
+        <v>0.1109569719955665</v>
       </c>
       <c r="F4">
-        <v>1.587975245859411</v>
+        <v>1.698716305885483</v>
       </c>
       <c r="G4">
-        <v>0.002428193274183066</v>
+        <v>0.0007614608559216585</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8605291892113058</v>
+        <v>1.072090952894555</v>
       </c>
       <c r="J4">
-        <v>0.1846464827537275</v>
+        <v>0.1862621206383963</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.9993597414894</v>
+        <v>4.766206282934547</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005290722662982361</v>
+        <v>0.004714793477990753</v>
       </c>
       <c r="D5">
-        <v>0.1656755819619136</v>
+        <v>0.07002293237471946</v>
       </c>
       <c r="E5">
-        <v>0.1519915571079693</v>
+        <v>0.1076914365716775</v>
       </c>
       <c r="F5">
-        <v>1.575618501119607</v>
+        <v>1.63774572950004</v>
       </c>
       <c r="G5">
-        <v>0.002429495028810907</v>
+        <v>0.0007633479938324182</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.851826243782142</v>
+        <v>1.03160098139179</v>
       </c>
       <c r="J5">
-        <v>0.1833770359119313</v>
+        <v>0.1797001995646141</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.961819388656522</v>
+        <v>4.588521235635312</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005282277765694232</v>
+        <v>0.004691885967197607</v>
       </c>
       <c r="D6">
-        <v>0.1656791974118477</v>
+        <v>0.06985838763392138</v>
       </c>
       <c r="E6">
-        <v>0.1519083154530705</v>
+        <v>0.1071521559909705</v>
       </c>
       <c r="F6">
-        <v>1.573582179559608</v>
+        <v>1.62766612370848</v>
       </c>
       <c r="G6">
-        <v>0.002429713590366943</v>
+        <v>0.0007636634172546151</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.850389866738638</v>
+        <v>1.024905269757184</v>
       </c>
       <c r="J6">
-        <v>0.1831680539591432</v>
+        <v>0.1786157460822935</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.955626111343008</v>
+        <v>4.559141319111518</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.005340729042611514</v>
+        <v>0.004850855152731981</v>
       </c>
       <c r="D7">
-        <v>0.1656595702654968</v>
+        <v>0.07100916777820743</v>
       </c>
       <c r="E7">
-        <v>0.1524936963151973</v>
+        <v>0.1109127301850066</v>
       </c>
       <c r="F7">
-        <v>1.587807558372191</v>
+        <v>1.697890993610699</v>
       </c>
       <c r="G7">
-        <v>0.002428210669018882</v>
+        <v>0.0007614861688171516</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8604112318919732</v>
+        <v>1.071543001909987</v>
       </c>
       <c r="J7">
-        <v>0.1846292412151129</v>
+        <v>0.1861732725178413</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.998850757741309</v>
+        <v>4.763801442582292</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.005594573897342414</v>
+        <v>0.005552122377016744</v>
       </c>
       <c r="D8">
-        <v>0.1657081878800355</v>
+        <v>0.07631351741943604</v>
       </c>
       <c r="E8">
-        <v>0.1552650454767992</v>
+        <v>0.1279743491417591</v>
       </c>
       <c r="F8">
-        <v>1.652841496240853</v>
+        <v>2.014897157585835</v>
       </c>
       <c r="G8">
-        <v>0.002421927437479876</v>
+        <v>0.0007521701574063622</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9059083892653774</v>
+        <v>1.281782640556628</v>
       </c>
       <c r="J8">
-        <v>0.1913409155047816</v>
+        <v>0.2203456576906433</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.195465394021767</v>
+        <v>5.686914776933293</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.006077769785441944</v>
+        <v>0.006933029546068781</v>
       </c>
       <c r="D9">
-        <v>0.1662889926050966</v>
+        <v>0.08765532632344275</v>
       </c>
       <c r="E9">
-        <v>0.1613794864529368</v>
+        <v>0.1635063726219101</v>
       </c>
       <c r="F9">
-        <v>1.788569721226509</v>
+        <v>2.669101702893755</v>
       </c>
       <c r="G9">
-        <v>0.002410850731438568</v>
+        <v>0.0007348591453766694</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9997616778198619</v>
+        <v>1.714554477890246</v>
       </c>
       <c r="J9">
-        <v>0.2054599256652097</v>
+        <v>0.2911124238377596</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.602361170041831</v>
+        <v>7.589284048643776</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006424007598077708</v>
+        <v>0.007958159863864722</v>
       </c>
       <c r="D10">
-        <v>0.1670115016794327</v>
+        <v>0.09669743349445525</v>
       </c>
       <c r="E10">
-        <v>0.1662903725629192</v>
+        <v>0.1913030911541398</v>
       </c>
       <c r="F10">
-        <v>1.893370861341111</v>
+        <v>3.177126618260104</v>
       </c>
       <c r="G10">
-        <v>0.002403462898479308</v>
+        <v>0.0007226275366894045</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.071598801724534</v>
+        <v>2.049915963616627</v>
       </c>
       <c r="J10">
-        <v>0.2164273938265069</v>
+        <v>0.3462568387139697</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.914571738138193</v>
+        <v>9.065077140350013</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.006579646417335994</v>
+        <v>0.008428616968352287</v>
       </c>
       <c r="D11">
-        <v>0.167404410306446</v>
+        <v>0.100999493027885</v>
       </c>
       <c r="E11">
-        <v>0.1686163153965907</v>
+        <v>0.2044248548576704</v>
       </c>
       <c r="F11">
-        <v>1.942170287001204</v>
+        <v>3.41611492078772</v>
       </c>
       <c r="G11">
-        <v>0.002400263057522798</v>
+        <v>0.0007171442110358941</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.10491864923722</v>
+        <v>2.207517218542066</v>
       </c>
       <c r="J11">
-        <v>0.2215481945660116</v>
+        <v>0.372249127467839</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.059543080872743</v>
+        <v>9.759041800641228</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.006638316136701405</v>
+        <v>0.008607529192065755</v>
       </c>
       <c r="D12">
-        <v>0.1675624270670966</v>
+        <v>0.1026589863349656</v>
       </c>
       <c r="E12">
-        <v>0.1695103775834284</v>
+        <v>0.2094727047282419</v>
       </c>
       <c r="F12">
-        <v>1.960812432054894</v>
+        <v>3.507931801680655</v>
       </c>
       <c r="G12">
-        <v>0.002399074361535178</v>
+        <v>0.0007150771293379055</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.11762906363505</v>
+        <v>2.268042134944992</v>
       </c>
       <c r="J12">
-        <v>0.2235064070284523</v>
+        <v>0.3822432978933534</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.114867506673818</v>
+        <v>10.02561864533777</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006625692435850539</v>
+        <v>0.008568960528538838</v>
       </c>
       <c r="D13">
-        <v>0.1675279848826676</v>
+        <v>0.1023001768124132</v>
       </c>
       <c r="E13">
-        <v>0.1693172338603688</v>
+        <v>0.2083818709630947</v>
       </c>
       <c r="F13">
-        <v>1.956790251411689</v>
+        <v>3.488095638093966</v>
       </c>
       <c r="G13">
-        <v>0.002399329347092327</v>
+        <v>0.0007155219369389482</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.114887503869923</v>
+        <v>2.254967373350269</v>
       </c>
       <c r="J13">
-        <v>0.2230838201640069</v>
+        <v>0.3800837738811111</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.102933359247629</v>
+        <v>9.968028840812906</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.006584478562363216</v>
+        <v>0.008443319910245606</v>
       </c>
       <c r="D14">
-        <v>0.1674172254762567</v>
+        <v>0.1011353913051138</v>
       </c>
       <c r="E14">
-        <v>0.1686896039987076</v>
+        <v>0.204838498834043</v>
       </c>
       <c r="F14">
-        <v>1.943700717094572</v>
+        <v>3.423641218142109</v>
       </c>
       <c r="G14">
-        <v>0.002400164802527379</v>
+        <v>0.000716973978079836</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.105962476160244</v>
+        <v>2.212478970827092</v>
       </c>
       <c r="J14">
-        <v>0.2217089147210629</v>
+        <v>0.3730681881838791</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.064086078761079</v>
+        <v>9.780894020676442</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.006559199094112955</v>
+        <v>0.008366465759465314</v>
       </c>
       <c r="D15">
-        <v>0.1673505840861793</v>
+        <v>0.1004259883485972</v>
       </c>
       <c r="E15">
-        <v>0.1683068934386682</v>
+        <v>0.202678688498537</v>
       </c>
       <c r="F15">
-        <v>1.935704241955278</v>
+        <v>3.384338403655164</v>
       </c>
       <c r="G15">
-        <v>0.00240067953628191</v>
+        <v>0.0007178645378080019</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.100507761758422</v>
+        <v>2.186567414436013</v>
       </c>
       <c r="J15">
-        <v>0.2208692341137919</v>
+        <v>0.3687913344089822</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.040346698035364</v>
+        <v>9.666778832012596</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.006413798768271306</v>
+        <v>0.007927511177378221</v>
       </c>
       <c r="D16">
-        <v>0.1669871162193317</v>
+        <v>0.09642035148119277</v>
       </c>
       <c r="E16">
-        <v>0.1661402217915651</v>
+        <v>0.1904560047181363</v>
       </c>
       <c r="F16">
-        <v>1.890204433495285</v>
+        <v>3.161681989588118</v>
       </c>
       <c r="G16">
-        <v>0.00240367524306892</v>
+        <v>0.0007229873226063061</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.069434230842432</v>
+        <v>2.03972771457839</v>
       </c>
       <c r="J16">
-        <v>0.2160953989146606</v>
+        <v>0.3445781685995399</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.905157075009072</v>
+        <v>9.020224264662204</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.006324123085263977</v>
+        <v>0.007659395136876412</v>
       </c>
       <c r="D17">
-        <v>0.1667805881668443</v>
+        <v>0.09401356474377565</v>
       </c>
       <c r="E17">
-        <v>0.1648346298184862</v>
+        <v>0.1830868943702129</v>
       </c>
       <c r="F17">
-        <v>1.862580661376398</v>
+        <v>3.027232415914284</v>
       </c>
       <c r="G17">
-        <v>0.002405554137960804</v>
+        <v>0.0007261491547081662</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.050536287986077</v>
+        <v>1.95101849134825</v>
       </c>
       <c r="J17">
-        <v>0.2132006262028767</v>
+        <v>0.3299705946886888</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.822979363759998</v>
+        <v>8.629737025193435</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.006272368255473282</v>
+        <v>0.007505558512644228</v>
       </c>
       <c r="D18">
-        <v>0.1666678451965993</v>
+        <v>0.0926467954688448</v>
       </c>
       <c r="E18">
-        <v>0.1640923398405221</v>
+        <v>0.1788925745264791</v>
       </c>
       <c r="F18">
-        <v>1.846798008239091</v>
+        <v>2.950630524986764</v>
       </c>
       <c r="G18">
-        <v>0.002406649982739317</v>
+        <v>0.0007279755239405494</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.039726957704872</v>
+        <v>1.900462041602509</v>
       </c>
       <c r="J18">
-        <v>0.2115480116453909</v>
+        <v>0.3216526510858841</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.775989925992917</v>
+        <v>8.407232346872604</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.006254814741296855</v>
+        <v>0.007453531976164385</v>
       </c>
       <c r="D19">
-        <v>0.1666307110552339</v>
+        <v>0.09218695229287732</v>
       </c>
       <c r="E19">
-        <v>0.1638424975404007</v>
+        <v>0.1774797461879203</v>
       </c>
       <c r="F19">
-        <v>1.841472412555561</v>
+        <v>2.924814593606357</v>
       </c>
       <c r="G19">
-        <v>0.002407023623707676</v>
+        <v>0.0007285953006315913</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.036077431828204</v>
+        <v>1.883421261104104</v>
       </c>
       <c r="J19">
-        <v>0.2109905869810405</v>
+        <v>0.3188501572638387</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.76012758308957</v>
+        <v>8.332240387438787</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006333687396502086</v>
+        <v>0.007687896416697981</v>
       </c>
       <c r="D20">
-        <v>0.1668019476872189</v>
+        <v>0.09426793251603272</v>
       </c>
       <c r="E20">
-        <v>0.1649727164695278</v>
+        <v>0.183866703599513</v>
       </c>
       <c r="F20">
-        <v>1.865510300207291</v>
+        <v>3.041468000912062</v>
       </c>
       <c r="G20">
-        <v>0.002405352559037199</v>
+        <v>0.0007258117841665364</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.052541763386898</v>
+        <v>1.960412614998177</v>
       </c>
       <c r="J20">
-        <v>0.2135074971413786</v>
+        <v>0.3315167636373815</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.831698627653225</v>
+        <v>8.671084754069739</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.006596591321983425</v>
+        <v>0.008480201527827802</v>
       </c>
       <c r="D21">
-        <v>0.1674495077245268</v>
+        <v>0.1014766641973566</v>
       </c>
       <c r="E21">
-        <v>0.1688735932954657</v>
+        <v>0.2058770422011449</v>
       </c>
       <c r="F21">
-        <v>1.947541001679866</v>
+        <v>3.442535717124315</v>
       </c>
       <c r="G21">
-        <v>0.00239991878517265</v>
+        <v>0.0007165472447464571</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.108581445382072</v>
+        <v>2.22493488996804</v>
       </c>
       <c r="J21">
-        <v>0.2221122388766332</v>
+        <v>0.3751245439718076</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.075484852666136</v>
+        <v>9.835752655354952</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.00676685657725784</v>
+        <v>0.009002544228724929</v>
       </c>
       <c r="D22">
-        <v>0.1679265272183343</v>
+        <v>0.1063669678873964</v>
       </c>
       <c r="E22">
-        <v>0.1715004631243318</v>
+        <v>0.2207278809464768</v>
       </c>
       <c r="F22">
-        <v>2.002102616583727</v>
+        <v>3.712437093440258</v>
       </c>
       <c r="G22">
-        <v>0.002396501586941297</v>
+        <v>0.000710545463760002</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.145748539673875</v>
+        <v>2.402806288901004</v>
       </c>
       <c r="J22">
-        <v>0.2278471959354675</v>
+        <v>0.4045193642390359</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.237303306422632</v>
+        <v>10.61930708427468</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.006676124972550213</v>
+        <v>0.008723284886883675</v>
       </c>
       <c r="D23">
-        <v>0.16766701201567</v>
+        <v>0.1037393631586241</v>
       </c>
       <c r="E23">
-        <v>0.1700913507559818</v>
+        <v>0.2127553155278292</v>
       </c>
       <c r="F23">
-        <v>1.972894777410517</v>
+        <v>3.567606822074708</v>
       </c>
       <c r="G23">
-        <v>0.002398313182585034</v>
+        <v>0.0007137447012839291</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.125861919307937</v>
+        <v>2.307372705115156</v>
       </c>
       <c r="J23">
-        <v>0.2247761122309413</v>
+        <v>0.3887412476270242</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.150708771068594</v>
+        <v>10.19886652046335</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.00632936399155426</v>
+        <v>0.007675010044703612</v>
       </c>
       <c r="D24">
-        <v>0.1667922723815281</v>
+        <v>0.09415288037100566</v>
       </c>
       <c r="E24">
-        <v>0.1649102616082416</v>
+        <v>0.1835140209194606</v>
       </c>
       <c r="F24">
-        <v>1.864185503376831</v>
+        <v>3.035029941842026</v>
       </c>
       <c r="G24">
-        <v>0.002405443644086219</v>
+        <v>0.0007259642824722508</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.051634915608872</v>
+        <v>1.956164158613333</v>
       </c>
       <c r="J24">
-        <v>0.2133687245811586</v>
+        <v>0.330817492577026</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.827755852455084</v>
+        <v>8.652385281880981</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005948601382307572</v>
+        <v>0.006558157153399691</v>
       </c>
       <c r="D25">
-        <v>0.1660799154440724</v>
+        <v>0.08447321656938556</v>
       </c>
       <c r="E25">
-        <v>0.1596521609234394</v>
+        <v>0.1536306657294055</v>
       </c>
       <c r="F25">
-        <v>1.750965426991911</v>
+        <v>2.487908474482737</v>
       </c>
       <c r="G25">
-        <v>0.002413714909989392</v>
+        <v>0.0007394491342440791</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9738698291636609</v>
+        <v>1.594809637393851</v>
       </c>
       <c r="J25">
-        <v>0.2015367754053301</v>
+        <v>0.271482776086458</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.489974540659205</v>
+        <v>7.062657127029922</v>
       </c>
     </row>
   </sheetData>
